--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,45 +437,72 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.529747460660961</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.321959396238458</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.183289001986386</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.13979122323428</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3340778504038055</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1931114551587937</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.172690892567192</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7495860640514765</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1453421444086458</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.07542637032112778</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.2029934515014506</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1493150641220289</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3463219321921005</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.2362392370400808</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.09080890331934999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03087743226109219</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.321959396238458</v>
       </c>
+      <c r="C2" t="n">
+        <v>-5.022459607464143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.13979122323428</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.15825194988682</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1931114551587937</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.07204406301364299</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7495860640514765</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4144953840754857</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.07542637032112778</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.01451842867919532</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1493150641220289</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1067097157949464</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>0.2362392370400808</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.1344667699115433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -503,6 +527,9 @@
       </c>
       <c r="B9" t="n">
         <v>0.03087743226109219</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02767546902356237</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -452,7 +452,7 @@
         <v>-5.321959396238458</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.022459607464143</v>
+        <v>-4.998762209006956</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.13979122323428</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.15825194988682</v>
+        <v>-1.15501353610476</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1931114551587937</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07204406301364299</v>
+        <v>-0.06001339225539037</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7495860640514765</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4144953840754857</v>
+        <v>-0.4012163912933333</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.07542637032112778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01451842867919532</v>
+        <v>0.01256418049674497</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1493150641220289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1067097157949464</v>
+        <v>0.104613889132365</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2362392370400808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1344667699115433</v>
+        <v>0.1302835008737994</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>0.03087743226109219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02767546902356237</v>
+        <v>0.02670015811043037</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.321959396238458</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.998762209006956</v>
+        <v>-5.022459607464143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.691668997759643</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.32738296756667</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.13979122323428</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.15501353610476</v>
+        <v>-1.15825194988682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.157997093995135</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.136669764590692</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1931114551587937</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06001339225539037</v>
+        <v>-0.07204406301364299</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02113037539333502</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09319397166410644</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7495860640514765</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4012163912933333</v>
+        <v>-0.4144953840754857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1530309736455852</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05433179954793064</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.07542637032112778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01256418049674497</v>
+        <v>0.01451842867919532</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0448712215926229</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09941504713009811</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1493150641220289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104613889132365</v>
+        <v>0.1067097157949464</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06782082594601035</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03020309278771556</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2362392370400808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1302835008737994</v>
+        <v>0.1344667699115433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0397297986559543</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05018014344453085</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +577,13 @@
         <v>0.03087743226109219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02670015811043037</v>
+        <v>0.02767546902356237</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02414576792187023</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02109546198953799</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.32738296756667</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.94156462812279</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.136669764590692</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.09809790272826</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.09319397166410644</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1457508593835726</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.05433179954793064</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2141391132948861</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.09941504713009811</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1482504761169129</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.03020309278771556</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.004884880492300727</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.05018014344453085</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1329203607319443</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -584,6 +608,9 @@
       </c>
       <c r="E9" t="n">
         <v>0.02109546198953799</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01829037863095154</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.94156462812279</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.54494431552864</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.09809790272826</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.045776854504057</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1457508593835726</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1804970585517467</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2141391132948861</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.3326905491179564</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1482504761169129</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1907450872735561</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.004884880492300727</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.0368532798337551</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.1329203607319443</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2067874364714243</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -611,6 +635,9 @@
       </c>
       <c r="F9" t="n">
         <v>0.01829037863095154</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0157726323984467</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.54494431552864</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.146971969076477</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.045776854504057</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.9829363765098978</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1804970585517467</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1992030767838817</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.3326905491179564</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4158869988709218</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1907450872735561</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2265452617147631</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.0368532798337551</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06528911483802549</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2067874364714243</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2707198102933173</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -638,6 +662,9 @@
       </c>
       <c r="G9" t="n">
         <v>0.0157726323984467</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01352784957435276</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.146971969076477</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.755741263348111</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.9829363765098978</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9125712048000831</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1992030767838817</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2036987463175962</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4158869988709218</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4692124328840609</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2265452617147631</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2555348654413087</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06528911483802549</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.08992397878837891</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2707198102933173</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.3241920092407989</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -665,6 +689,9 @@
       </c>
       <c r="H9" t="n">
         <v>0.01352784957435276</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01154040327625141</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.755741263348111</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.377990144925075</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9125712048000831</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8373974768703873</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2036987463175962</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1958360401774478</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4692124328840609</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4977163054097565</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2555348654413087</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.2777999012507666</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.08992397878837891</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1106141300345269</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.3241920092407989</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.3671196888025074</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -692,6 +716,9 @@
       </c>
       <c r="I9" t="n">
         <v>0.01154040327625141</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00979371385586526</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.377990144925075</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.019139927082141</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8373974768703873</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7598244271280606</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1958360401774478</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1774500864356832</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4977163054097565</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5060003216547209</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.2777999012507666</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.2935966384735696</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1106141300345269</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1273300101980855</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.3671196888025074</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.3997681015958276</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -719,6 +743,9 @@
       </c>
       <c r="J9" t="n">
         <v>0.00979371385586526</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008270619109270841</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.019139927082141</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.683366724788969</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7598244271280606</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6819382822192388</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1774500864356832</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1503215704301568</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5060003216547209</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.4982105704773238</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.2935966384735696</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.303321762461555</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1273300101980855</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1401473043563644</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.3997681015958276</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.4226681160475411</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -746,6 +770,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.008270619109270841</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.006953676976435889</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.683366724788969</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.373697393121901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6819382822192388</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.6054981996553083</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1503215704301568</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1161433641772741</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.4982105704773238</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4780362914226607</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.303321762461555</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.3074825671579081</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1401473043563644</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.1492361972398843</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.4226681160475411</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.4365423768729185</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -773,6 +797,9 @@
       </c>
       <c r="L9" t="n">
         <v>0.006953676976435889</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.005825483801570897</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.373697393121901</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.092122348619882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.6054981996553083</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5319432108778201</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1161433641772741</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.07649327884494005</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4780362914226607</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4487159575179988</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.3074825671579081</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.3066668979846479</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.1492361972398843</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1548473160477631</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.4365423768729185</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.442242694671732</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -800,6 +824,9 @@
       </c>
       <c r="M9" t="n">
         <v>0.005825483801570897</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.004868941274870587</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.092122348619882</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.8397183152996887</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6167749765532855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5319432108778201</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4624083309197978</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3977475780327427</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.07649327884494005</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03281388342494291</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.01360049289061191</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4487159575179988</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4130507219582314</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3734246626774081</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.3066668979846479</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.3015136450913565</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2926850671390637</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1548473160477631</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1572945797229056</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1569362483016216</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.442242694671732</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.4406984997042788</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.432875370004439</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -827,6 +875,12 @@
       </c>
       <c r="N9" t="n">
         <v>0.004868941274870587</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.004067465981761826</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003405145540027914</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6167749765532855</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.4229205748767374</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.3977475780327427</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3385615974957237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.01360049289061191</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.06161007780399937</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.3734246626774081</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3318307754601678</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.2926850671390637</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2808422141349237</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1569362483016216</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1541558713666283</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.432875370004439</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.4197422374808235</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -881,6 +905,9 @@
       </c>
       <c r="P9" t="n">
         <v>0.003405145540027914</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.002866849470406458</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.4229205748767374</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.257242581752066</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3385615974957237</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2852277884758697</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.06161007780399937</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.1102301949936494</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3318307754601678</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.2899013660733669</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2808422141349237</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2666243911123223</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1541558713666283</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.1493447158010414</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.4197422374808235</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.4022458115941923</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -908,6 +932,9 @@
       </c>
       <c r="Q9" t="n">
         <v>0.002866849470406458</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.002438304012167222</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.257242581752066</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1184005857266415</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2852277884758697</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.2379311805265226</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.1102301949936494</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.1586271255752298</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.2899013660733669</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2489413780735193</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2666243911123223</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2506331402589544</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.1493447158010414</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.1428868213628817</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.4022458115941923</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.38129091676584</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -935,6 +959,9 @@
       </c>
       <c r="R9" t="n">
         <v>0.002438304012167222</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.002106139330920596</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1184005857266415</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.00472946878789085</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.2379311805265226</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1966947065489278</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.1586271255752298</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.2061104300132443</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2489413780735193</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2099632360739568</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2506331402589544</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2334207588454723</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.1428868213628817</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.1351472920190691</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.38129091676584</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.3577256915671875</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -962,6 +986,9 @@
       </c>
       <c r="S9" t="n">
         <v>0.002106139330920596</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001857915938203988</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.00472946878789085</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.08566826805315891</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1966947065489278</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.1614079079832173</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.2061104300132443</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2521227947623206</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2099632360739568</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1737219392640475</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2334207588454723</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2154830026028522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.1351472920190691</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.126463932699745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.3577256915671875</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.3323308490000104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -989,6 +1013,9 @@
       </c>
       <c r="T9" t="n">
         <v>0.001857915938203988</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001682135344528585</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.08566826805315891</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.1548415200690177</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.1614079079832173</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.1318534478944524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2521227947623206</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2962283285926913</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1737219392640475</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1407493594969197</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2154830026028522</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.197255386383717</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.126463932699745</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1171419688426777</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.3323308490000104</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.305812394313439</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1016,6 +1040,9 @@
       </c>
       <c r="U9" t="n">
         <v>0.001682135344528585</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001568238397970453</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.1548415200690177</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.2049209160000621</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.1318534478944524</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.1077310819044732</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2962283285926913</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3381000660240857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1407493594969197</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.1113869412859434</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.197255386383717</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1791123844514741</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1171419688426777</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1074513641574835</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.305812394313439</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.2787973245775513</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1043,6 +1067,9 @@
       </c>
       <c r="V9" t="n">
         <v>0.001568238397970453</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001506593588286294</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.2049209160000621</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2380600783596719</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.1077310819044732</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08867894377401207</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3381000660240857</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3775072662316552</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.1113869412859434</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.08581623702745003</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1791123844514741</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1613688269143644</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1074513641574835</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.09762616476391195</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.2787973245775513</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.2518319023974384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1070,6 +1094,9 @@
       </c>
       <c r="W9" t="n">
         <v>0.001506593588286294</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001488476838479244</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2380600783596719</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2563871420573319</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08867894377401207</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.0742921487775626</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3775072662316552</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4143029417551842</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.08581623702745003</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.06408692030607012</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1613688269143644</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1442828530961904</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.09762616476391195</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.08786530994065564</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.2518319023974384</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.2253821252134208</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1097,6 +1121,9 @@
       </c>
       <c r="X9" t="n">
         <v>0.001488476838479244</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.00150604389397214</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2563871420573319</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.2619656960442516</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.0742921487775626</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06413881475848419</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.4143029417551842</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.4484119206738728</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.06408692030607012</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.04614209356520081</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1442828530961904</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.1280598845469163</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.08786530994065564</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.07833442202019</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.2253821252134208</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1998360223783945</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1124,6 +1148,9 @@
       </c>
       <c r="Y9" t="n">
         <v>0.00150604389397214</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001552296253062858</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.2619656960442516</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2567642191707658</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06413881475848419</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.05777365962452152</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.4484119206738728</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4798196410423385</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.04614209356520081</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.03184084138711005</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.1280598845469163</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1128571940392107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.07833442202019</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.0691681869584935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1998360223783945</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1755074201976013</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1151,6 +1175,9 @@
       </c>
       <c r="Z9" t="n">
         <v>0.001552296253062858</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001621041560495147</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2567642191707658</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.2426330473185318</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.05777365962452152</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.05474936570381437</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4798196410423385</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.5085617960333781</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.03184084138711005</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.0209780795724666</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1128571940392107</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.09878875471815969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.0691681869584935</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.06047303876918453</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1755074201976013</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1526408292655932</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1178,6 +1202,9 @@
       </c>
       <c r="AA9" t="n">
         <v>0.001621041560495147</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001706849426502295</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.2426330473185318</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2212879184310927</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.05474936570381437</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.05462591457628643</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.5085617960333781</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5347148891321778</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.0209780795724666</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.01330181820630065</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.09878875471815969</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.08593014579928848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.06047303876918453</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.05232995094730195</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1526408292655932</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1314171319361986</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1205,6 +1229,9 @@
       </c>
       <c r="AB9" t="n">
         <v>0.001706849426502295</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001805003679528485</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2212879184310927</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.1942991819643402</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.05462591457628643</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05697809737282353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5347148891321778</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.5583877168655791</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.01330181820630065</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.008528000003520872</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.08593014579928848</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.07432336413620069</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.05232995094730195</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.04479720966144465</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1314171319361986</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1119597799672972</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1232,6 +1256,9 @@
       </c>
       <c r="AC9" t="n">
         <v>0.001805003679528485</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001911452079169296</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.1942991819643402</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1630858186589443</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05697809737282353</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.06140139982918077</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.5583877168655791</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5797137679611434</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.008528000003520872</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.006353099408583686</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.07432336413620069</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.06398144495194599</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.04479720966144465</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.03791309574102028</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1119597799672972</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.0943412506486985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1259,6 +1283,9 @@
       </c>
       <c r="AD9" t="n">
         <v>0.001911452079169296</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.002022754493549838</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.1630858186589443</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1289134869484871</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.06140139982918077</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06751645176736422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5797137679611434</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.5988445090162432</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.006353099408583686</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.006464678447188063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.06398144495194599</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.05489283267019639</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.03791309574102028</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.03169843740834063</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.0943412506486985</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.07858955080076253</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1286,6 +1310,9 @@
       </c>
       <c r="AE9" t="n">
         <v>0.002022754493549838</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.002136030482920748</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1289134869484871</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.0928958874741006</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06751645176736422</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.0749722191529812</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.5988445090162432</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6159435148656696</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.006464678447188063</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.008550096495888851</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.05489283267019639</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.04702546763656669</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.03169843740834063</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.02615901685663762</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.07858955080076253</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.06469459893790752</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1313,6 +1337,9 @@
       </c>
       <c r="AF9" t="n">
         <v>0.002136030482920748</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.002248907136830435</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.0928958874741006</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.05599881264151698</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.0749722191529812</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.08344810462158775</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6159435148656696</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.631181394680008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.008550096495888851</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.01230356625331538</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.04702546763656669</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.04033057015929385</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.02615901685663762</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.02128782501811039</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.06469459893790752</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.05261435431854869</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1340,6 +1364,9 @@
       </c>
       <c r="AG9" t="n">
         <v>0.002248907136830435</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.002359467897515183</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.05599881264151698</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.01904632099655678</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.08344810462158775</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.09265511001929395</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.631181394680008</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6447314608149503</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.01230356625331538</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.01743173966696739</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.04033057015929385</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03474611282144831</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.02128782501811039</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.01706716368912393</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.05261435431854869</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.04228059604009165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1367,6 +1391,9 @@
       </c>
       <c r="AH9" t="n">
         <v>0.002359467897515183</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.002466202978520834</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.01904632099655678</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.01727145535440489</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.09265511001929395</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.1023362023750455</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6447314608149503</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.6567660854613533</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.01743173966696739</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02365799704925296</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03474611282144831</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.03019997783933089</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.01706716368912393</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01347059537596713</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.04228059604009165</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.03360428500407186</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1394,6 +1418,9 @@
       </c>
       <c r="AI9" t="n">
         <v>0.002466202978520834</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00256796186483357</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.01727145535440489</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.05238929889109023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.1023362023750455</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1122660129443949</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.6567660854613533</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.6674536894894348</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02365799704925296</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.03072560118648094</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.03019997783933089</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.02661280007295809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01347059537596713</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.01046474080870147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.03360428500407186</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.02648046627818468</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1421,6 +1445,9 @@
       </c>
       <c r="AJ9" t="n">
         <v>0.00256796186483357</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002663908265906186</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.05238929889109023</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.08585706142684768</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1122660129443949</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1222499875786575</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.6674536894894348</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.6769563080814684</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.03072560118648094</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.03839986656703719</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.02661280007295809</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02390049922317823</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.01046474080870147</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.008010923341468083</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.02648046627818468</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.02079268934117466</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1448,6 +1472,9 @@
       </c>
       <c r="AK9" t="n">
         <v>0.002663908265906186</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002753477790290802</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.08585706142684768</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1173293043950699</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1222499875786575</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1321230956856609</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.6769563080814684</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.6854276785335262</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.03839986656703719</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.04646948230504318</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02390049922317823</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02197650737745955</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.008010923341468083</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.006066659128032162</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.02079268934117466</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.01641693939506487</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1475,6 +1499,9 @@
       </c>
       <c r="AL9" t="n">
         <v>0.002753477790290802</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002836338522032124</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1173293043950699</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1465546966682253</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1321230956856609</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1417481944596907</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.6854276785335262</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.6930117968250614</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.04646948230504318</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05474711610312107</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02197650737745955</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.02075370064857087</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.006066659128032162</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.004586992314496857</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.01641693939506487</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.01322508497672528</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1502,6 +1526,9 @@
       </c>
       <c r="AM9" t="n">
         <v>0.002836338522032124</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002912354604712618</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1465546966682253</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1733653996679434</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1417481944596907</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1510141348745231</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.6930117968250614</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.6998418911219429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05474711610312107</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.06306941576276222</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.02075370064857087</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.02014604622464966</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.004586992314496857</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.003525675526179257</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.01322508497672528</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.01108785613658887</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1529,6 +1553,9 @@
       </c>
       <c r="AN9" t="n">
         <v>0.002912354604712618</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002981552878008899</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1733653996679434</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.1976666315293148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1510141348745231</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1598336861695233</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.6998418911219429</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.7060397622485528</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.06306941576276222</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.07129651433375624</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.02014604622464966</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.02006997863588483</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.003525675526179257</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.002836197482905122</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.01108785613658887</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.009877374077936532</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1556,6 +1580,9 @@
       </c>
       <c r="AO9" t="n">
         <v>0.002981552878008899</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.003044092562153483</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.1976666315293148</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2194265678831528</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1598336861695233</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1681413462356633</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.7060397622485528</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.7117154433088959</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.07129651433375624</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.07931113499056926</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.02006997863588483</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.02044552131909591</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.002836197482905122</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.002472661431151504</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.009877374077936532</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.009469257889990243</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1583,6 +1607,9 @@
       </c>
       <c r="AP9" t="n">
         <v>0.003044092562153483</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.003100237945859468</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2194265678831528</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2386667060273116</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1681413462356633</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1758910964510293</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.7117154433088959</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7169671330307014</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.07931113499056926</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08701738212211886</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.02044552131909591</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02119717150719459</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.002472661431151504</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.002390520005875598</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.009469257889990243</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.009744337292039941</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1610,6 +1634,9 @@
       </c>
       <c r="AQ9" t="n">
         <v>0.003100237945859468</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.00315033400121972</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2386667060273116</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2554527915497345</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1758910964510293</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1830541511490995</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7169671330307014</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7218813600239677</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08701738212211886</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.09433929591441349</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02119717150719459</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02225456799570636</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.002390520005875598</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.00254717393937667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.009744337292039941</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.01059000246843372</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1637,6 +1661,9 @@
       </c>
       <c r="AR9" t="n">
         <v>0.00315033400121972</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.003194784823270073</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2554527915497345</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2698863815855568</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1830541511490995</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1896167440512916</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7218813600239677</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7265333379552505</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.09433929591441349</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.1012192388936657</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02225456799570636</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.02355296239236284</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.00254717393937667</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.002902443582019107</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.01059000246843372</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.01190122336425641</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1664,6 +1688,9 @@
       </c>
       <c r="AS9" t="n">
         <v>0.003194784823270073</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.003234034770996494</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_8.xlsx
+++ b/predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2698863815855568</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2820970966405009</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1896167440512916</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1955779866780712</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7265333379552505</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7309874746055194</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.1012192388936657</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1076161744888697</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.02355296239236284</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.0250335150263185</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.002902443582019107</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.003418923408958961</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.01190122336425641</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.01358127140723607</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1691,6 +1715,9 @@
       </c>
       <c r="AT9" t="n">
         <v>0.003234034770996494</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.003268552169714914</v>
       </c>
     </row>
   </sheetData>
